--- a/Bewertungsbogen/Bewertungsbogen.xlsx
+++ b/Bewertungsbogen/Bewertungsbogen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\IdeaProjects\Speisen-Oase\Bewertungsbogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE526513-0E3D-4C65-B70F-5D93B12F8D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B18B6A-18E5-40A4-95DB-E8643B152D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="1" r:id="rId1"/>
